--- a/app/static/misc/excelcompile.xlsx
+++ b/app/static/misc/excelcompile.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francisco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TinyMRP\Server\SourceCode\app\static\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A5D829-275B-4917-9F7C-C6F43DEDB178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7ECBF4-87DB-4038-AF6D-96EBE1055A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-1965" windowWidth="28110" windowHeight="16440" xr2:uid="{512F8048-FE75-46D8-A83D-F2F6651BC7C9}"/>
+    <workbookView xWindow="10515" yWindow="3600" windowWidth="57600" windowHeight="15345" xr2:uid="{512F8048-FE75-46D8-A83D-F2F6651BC7C9}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPILE" sheetId="1" r:id="rId1"/>
+    <sheet name="example" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>partnumber</t>
   </si>
@@ -45,37 +37,37 @@
     <t>qty</t>
   </si>
   <si>
-    <t>AWS-A-007525</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>AWS-A-007534</t>
-  </si>
-  <si>
-    <t>AWS-A-010160</t>
-  </si>
-  <si>
-    <t>AWS-A-011596</t>
-  </si>
-  <si>
-    <t>AWS-A-011780</t>
-  </si>
-  <si>
-    <t>AWS-A-011781</t>
-  </si>
-  <si>
-    <t>AWS-A-007495</t>
-  </si>
-  <si>
-    <t>AWS-A-007526</t>
-  </si>
-  <si>
-    <t>AWS-A-007524</t>
-  </si>
-  <si>
     <t>item</t>
+  </si>
+  <si>
+    <t>ABC-A-007525</t>
+  </si>
+  <si>
+    <t>ABC-A-007534</t>
+  </si>
+  <si>
+    <t>ABC-A-010160</t>
+  </si>
+  <si>
+    <t>ABC-A-011596</t>
+  </si>
+  <si>
+    <t>ABC-A-011780</t>
+  </si>
+  <si>
+    <t>ABC-A-011781</t>
+  </si>
+  <si>
+    <t>ABC-A-007495</t>
+  </si>
+  <si>
+    <t>ABC-A-007526</t>
+  </si>
+  <si>
+    <t>ABC-A-007524</t>
   </si>
 </sst>
 </file>
@@ -126,10 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,7 +443,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +455,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -476,125 +471,232 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD6F79E-36F6-4F52-913A-C7E7E431E2A7}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
